--- a/modules/log/Kanat.xlsx
+++ b/modules/log/Kanat.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1018,9 +1018,53 @@
         <v>10</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Kanat</v>
+      </c>
+      <c r="B15" t="str">
+        <v>9913</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Байсеркешов А</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Толе би (Комешбулак)</v>
+      </c>
+      <c r="E15" t="str">
+        <v>21/1</v>
+      </c>
+      <c r="F15" t="str">
+        <v>10345</v>
+      </c>
+      <c r="G15" t="str">
+        <v>1860</v>
+      </c>
+      <c r="H15" t="str">
+        <v>1866</v>
+      </c>
+      <c r="I15" t="str">
+        <v>6</v>
+      </c>
+      <c r="J15" t="str">
+        <v>2025</v>
+      </c>
+      <c r="K15" t="str">
+        <v>5</v>
+      </c>
+      <c r="L15" t="str">
+        <v>22</v>
+      </c>
+      <c r="M15" t="str">
+        <v>20</v>
+      </c>
+      <c r="N15" t="str">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N15"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/modules/log/Kanat.xlsx
+++ b/modules/log/Kanat.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1062,9 +1062,537 @@
         <v>34</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Kanat</v>
+      </c>
+      <c r="B16" t="str">
+        <v>9833</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Аитбеков Н</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Жандарбеков(Комеш-б)</v>
+      </c>
+      <c r="E16" t="str">
+        <v>17</v>
+      </c>
+      <c r="F16" t="str">
+        <v>68068</v>
+      </c>
+      <c r="G16" t="str">
+        <v>530</v>
+      </c>
+      <c r="H16" t="str">
+        <v>570</v>
+      </c>
+      <c r="I16" t="str">
+        <v>40</v>
+      </c>
+      <c r="J16" t="str">
+        <v>2025</v>
+      </c>
+      <c r="K16" t="str">
+        <v>5</v>
+      </c>
+      <c r="L16" t="str">
+        <v>25</v>
+      </c>
+      <c r="M16" t="str">
+        <v>12</v>
+      </c>
+      <c r="N16" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Kanat</v>
+      </c>
+      <c r="B17" t="str">
+        <v>9834</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Омарбеков Е</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Жандарбеков(Комеш-б)</v>
+      </c>
+      <c r="E17" t="str">
+        <v>26</v>
+      </c>
+      <c r="F17" t="str">
+        <v>80677</v>
+      </c>
+      <c r="G17" t="str">
+        <v>105</v>
+      </c>
+      <c r="H17" t="str">
+        <v>182</v>
+      </c>
+      <c r="I17" t="str">
+        <v>77</v>
+      </c>
+      <c r="J17" t="str">
+        <v>2025</v>
+      </c>
+      <c r="K17" t="str">
+        <v>5</v>
+      </c>
+      <c r="L17" t="str">
+        <v>25</v>
+      </c>
+      <c r="M17" t="str">
+        <v>12</v>
+      </c>
+      <c r="N17" t="str">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Kanat</v>
+      </c>
+      <c r="B18" t="str">
+        <v>10405</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Аманов А</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Жандарбеков(Комеш-б)</v>
+      </c>
+      <c r="E18" t="str">
+        <v>16</v>
+      </c>
+      <c r="F18" t="str">
+        <v>68069</v>
+      </c>
+      <c r="G18" t="str">
+        <v>195</v>
+      </c>
+      <c r="H18" t="str">
+        <v>205</v>
+      </c>
+      <c r="I18" t="str">
+        <v>10</v>
+      </c>
+      <c r="J18" t="str">
+        <v>2025</v>
+      </c>
+      <c r="K18" t="str">
+        <v>5</v>
+      </c>
+      <c r="L18" t="str">
+        <v>25</v>
+      </c>
+      <c r="M18" t="str">
+        <v>12</v>
+      </c>
+      <c r="N18" t="str">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Kanat</v>
+      </c>
+      <c r="B19" t="str">
+        <v>9555</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Нартаев Е</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Жандарбеков(Комеш-б)</v>
+      </c>
+      <c r="E19" t="str">
+        <v>14</v>
+      </c>
+      <c r="F19" t="str">
+        <v>79642</v>
+      </c>
+      <c r="G19" t="str">
+        <v>224</v>
+      </c>
+      <c r="H19" t="str">
+        <v>297</v>
+      </c>
+      <c r="I19" t="str">
+        <v>73</v>
+      </c>
+      <c r="J19" t="str">
+        <v>2025</v>
+      </c>
+      <c r="K19" t="str">
+        <v>5</v>
+      </c>
+      <c r="L19" t="str">
+        <v>25</v>
+      </c>
+      <c r="M19" t="str">
+        <v>12</v>
+      </c>
+      <c r="N19" t="str">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Kanat</v>
+      </c>
+      <c r="B20" t="str">
+        <v>41801</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Сариев Е</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Жанакурылыс Комеш-б</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Б/Н</v>
+      </c>
+      <c r="F20" t="str">
+        <v>81224</v>
+      </c>
+      <c r="G20" t="str">
+        <v>1</v>
+      </c>
+      <c r="H20" t="str">
+        <v>6</v>
+      </c>
+      <c r="I20" t="str">
+        <v>5</v>
+      </c>
+      <c r="J20" t="str">
+        <v>2025</v>
+      </c>
+      <c r="K20" t="str">
+        <v>5</v>
+      </c>
+      <c r="L20" t="str">
+        <v>25</v>
+      </c>
+      <c r="M20" t="str">
+        <v>12</v>
+      </c>
+      <c r="N20" t="str">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Kanat</v>
+      </c>
+      <c r="B21" t="str">
+        <v>9862</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Баркыбаев К</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Буря Роза Комешбулак</v>
+      </c>
+      <c r="E21" t="str">
+        <v>24</v>
+      </c>
+      <c r="F21" t="str">
+        <v>54557</v>
+      </c>
+      <c r="G21" t="str">
+        <v>553</v>
+      </c>
+      <c r="H21" t="str">
+        <v>569</v>
+      </c>
+      <c r="I21" t="str">
+        <v>16</v>
+      </c>
+      <c r="J21" t="str">
+        <v>2025</v>
+      </c>
+      <c r="K21" t="str">
+        <v>5</v>
+      </c>
+      <c r="L21" t="str">
+        <v>25</v>
+      </c>
+      <c r="M21" t="str">
+        <v>17</v>
+      </c>
+      <c r="N21" t="str">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Kanat</v>
+      </c>
+      <c r="B22" t="str">
+        <v>9973</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Жаманкулов Г</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Буря Роза Комешбулак</v>
+      </c>
+      <c r="E22" t="str">
+        <v>26</v>
+      </c>
+      <c r="F22" t="str">
+        <v>64114</v>
+      </c>
+      <c r="G22" t="str">
+        <v>400</v>
+      </c>
+      <c r="H22" t="str">
+        <v>550</v>
+      </c>
+      <c r="I22" t="str">
+        <v>150</v>
+      </c>
+      <c r="J22" t="str">
+        <v>2025</v>
+      </c>
+      <c r="K22" t="str">
+        <v>5</v>
+      </c>
+      <c r="L22" t="str">
+        <v>25</v>
+      </c>
+      <c r="M22" t="str">
+        <v>17</v>
+      </c>
+      <c r="N22" t="str">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Kanat</v>
+      </c>
+      <c r="B23" t="str">
+        <v>9723</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Корабаева Г</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Расилов (Комешбулак)</v>
+      </c>
+      <c r="E23" t="str">
+        <v>2а</v>
+      </c>
+      <c r="F23" t="str">
+        <v>67579</v>
+      </c>
+      <c r="G23" t="str">
+        <v>400</v>
+      </c>
+      <c r="H23" t="str">
+        <v>430</v>
+      </c>
+      <c r="I23" t="str">
+        <v>30</v>
+      </c>
+      <c r="J23" t="str">
+        <v>2025</v>
+      </c>
+      <c r="K23" t="str">
+        <v>5</v>
+      </c>
+      <c r="L23" t="str">
+        <v>28</v>
+      </c>
+      <c r="M23" t="str">
+        <v>17</v>
+      </c>
+      <c r="N23" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Kanat</v>
+      </c>
+      <c r="B24" t="str">
+        <v>9719</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Серикбаева П</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Расилов (Комешбулак)</v>
+      </c>
+      <c r="E24" t="str">
+        <v>15</v>
+      </c>
+      <c r="F24" t="str">
+        <v>70039</v>
+      </c>
+      <c r="G24" t="str">
+        <v>175</v>
+      </c>
+      <c r="H24" t="str">
+        <v>933</v>
+      </c>
+      <c r="I24" t="str">
+        <v>758</v>
+      </c>
+      <c r="J24" t="str">
+        <v>2025</v>
+      </c>
+      <c r="K24" t="str">
+        <v>6</v>
+      </c>
+      <c r="L24" t="str">
+        <v>1</v>
+      </c>
+      <c r="M24" t="str">
+        <v>9</v>
+      </c>
+      <c r="N24" t="str">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Kanat</v>
+      </c>
+      <c r="B25" t="str">
+        <v>9721</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Скандиярова Г</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Расилов (Комешбулак)</v>
+      </c>
+      <c r="E25" t="str">
+        <v>2</v>
+      </c>
+      <c r="F25" t="str">
+        <v>67559</v>
+      </c>
+      <c r="G25" t="str">
+        <v>600</v>
+      </c>
+      <c r="H25" t="str">
+        <v>615</v>
+      </c>
+      <c r="I25" t="str">
+        <v>15</v>
+      </c>
+      <c r="J25" t="str">
+        <v>2025</v>
+      </c>
+      <c r="K25" t="str">
+        <v>6</v>
+      </c>
+      <c r="L25" t="str">
+        <v>1</v>
+      </c>
+      <c r="M25" t="str">
+        <v>10</v>
+      </c>
+      <c r="N25" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Kanat</v>
+      </c>
+      <c r="B26" t="str">
+        <v>9551</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Жунисов К</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Абай (Комешбулак)</v>
+      </c>
+      <c r="E26" t="str">
+        <v>б/н</v>
+      </c>
+      <c r="F26" t="str">
+        <v>73434</v>
+      </c>
+      <c r="G26" t="str">
+        <v>170</v>
+      </c>
+      <c r="H26" t="str">
+        <v>180</v>
+      </c>
+      <c r="I26" t="str">
+        <v>10</v>
+      </c>
+      <c r="J26" t="str">
+        <v>2025</v>
+      </c>
+      <c r="K26" t="str">
+        <v>6</v>
+      </c>
+      <c r="L26" t="str">
+        <v>1</v>
+      </c>
+      <c r="M26" t="str">
+        <v>11</v>
+      </c>
+      <c r="N26" t="str">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Kanat</v>
+      </c>
+      <c r="B27" t="str">
+        <v>9574</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Турсункулов М</v>
+      </c>
+      <c r="D27" t="str">
+        <v>М.Рысалды Комешбулак</v>
+      </c>
+      <c r="E27" t="str">
+        <v>2</v>
+      </c>
+      <c r="F27" t="str">
+        <v>73414</v>
+      </c>
+      <c r="G27" t="str">
+        <v>150</v>
+      </c>
+      <c r="H27" t="str">
+        <v>554</v>
+      </c>
+      <c r="I27" t="str">
+        <v>404</v>
+      </c>
+      <c r="J27" t="str">
+        <v>2025</v>
+      </c>
+      <c r="K27" t="str">
+        <v>6</v>
+      </c>
+      <c r="L27" t="str">
+        <v>3</v>
+      </c>
+      <c r="M27" t="str">
+        <v>13</v>
+      </c>
+      <c r="N27" t="str">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N15"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N27"/>
   </ignoredErrors>
 </worksheet>
 </file>